--- a/골프/레슨 추천.xlsx
+++ b/골프/레슨 추천.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058"/>
+    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="성불하세요" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="st아이언" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.youtube.com/watch?v=t7oHtW63Wqk</t>
   </si>
@@ -24,12 +24,19 @@
     <t>성불하세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qzu8CL60s8c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JkuUrZe3hZs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +47,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -63,18 +79,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -397,13 +420,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
